--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/35.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/35.xlsx
@@ -479,13 +479,13 @@
         <v>-18.97434404018367</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.19363007061116</v>
+        <v>-14.17281330909281</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4908855165867693</v>
+        <v>-0.5083113716691067</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.50177086918135</v>
+        <v>-10.47401518715689</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-18.42386540290475</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.3973724874341</v>
+        <v>-14.37859812515906</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.4793119208746834</v>
+        <v>-0.4991074827713732</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.2530956690056</v>
+        <v>-10.22718600168183</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-17.793530404023</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.71592130787614</v>
+        <v>-14.69537948471747</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.403337287484147</v>
+        <v>-0.4215355884341463</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.832793470877672</v>
+        <v>-9.804605742859435</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-17.14903238316235</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.17678346020774</v>
+        <v>-15.1542123301086</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3404287723296533</v>
+        <v>-0.3613109953622064</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.617058504651709</v>
+        <v>-9.587653192469192</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-16.50122929806707</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.62346664856175</v>
+        <v>-15.5993244421216</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3250715010963086</v>
+        <v>-0.3449587091128905</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.428568620639378</v>
+        <v>-9.39793263198974</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-15.85216523541948</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.10278894790018</v>
+        <v>-16.07486306593878</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3362523277231427</v>
+        <v>-0.362188179652602</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.287132473040213</v>
+        <v>-9.256758330447408</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.21586509891981</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.61086194427904</v>
+        <v>-16.57971535581857</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1215909303302021</v>
+        <v>-0.1448428601771076</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.084686194198602</v>
+        <v>-9.054429882331373</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-14.60167924168395</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.23786541967214</v>
+        <v>-17.20258166351369</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08238714794389007</v>
+        <v>0.05609780383770412</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.108802216033062</v>
+        <v>-9.078022212052163</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-13.98940257328589</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.66259281616058</v>
+        <v>-17.62491316858209</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2032552877787051</v>
+        <v>0.180225927080109</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.793251532941779</v>
+        <v>-8.763741482336529</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-13.39053786120711</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.19555428024156</v>
+        <v>-18.15492886452369</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3291115949962178</v>
+        <v>0.3060822342976217</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.717722037847862</v>
+        <v>-8.687046772289698</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-12.79914640412941</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.71822519428895</v>
+        <v>-18.6766047635551</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4145519633413222</v>
+        <v>0.388511372989129</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.216391577432487</v>
+        <v>-8.185310450486229</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-12.19423291952939</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.48184684983547</v>
+        <v>-19.43819711216115</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5530161581954171</v>
+        <v>0.5250640916283319</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.630406286842512</v>
+        <v>-7.59542365364942</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-11.58995894495202</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.30726417479493</v>
+        <v>-20.26335259106378</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7966508217770975</v>
+        <v>0.7655304179223146</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.058691606350019</v>
+        <v>-7.018956467225379</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-10.98001480670728</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.10416646416511</v>
+        <v>-21.05914203469241</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8788181144117703</v>
+        <v>0.8464146648784983</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.51682737633666</v>
+        <v>-6.472902700302669</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-10.35226405502846</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.99113070478353</v>
+        <v>-21.94733695177795</v>
       </c>
       <c r="F16" t="n">
-        <v>1.125843684429458</v>
+        <v>1.092157189217696</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.014894669990566</v>
+        <v>-5.974125238941431</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-9.722344179670031</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.62947211443757</v>
+        <v>-22.58671265335649</v>
       </c>
       <c r="F17" t="n">
-        <v>1.303676433928623</v>
+        <v>1.269466246603193</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.894812068326254</v>
+        <v>-5.852667945478738</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-9.088828048135513</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.41175030153354</v>
+        <v>-23.36776016398534</v>
       </c>
       <c r="F18" t="n">
-        <v>1.630512682069472</v>
+        <v>1.592623557645517</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.496635862000839</v>
+        <v>-5.454596477576057</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-8.45179342925106</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.21306469696138</v>
+        <v>-24.16705834477556</v>
       </c>
       <c r="F19" t="n">
-        <v>1.882277665715865</v>
+        <v>1.843838664572557</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.241322864284339</v>
+        <v>-5.201260417588657</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-7.831360869367278</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.96477235692193</v>
+        <v>-24.91870054322189</v>
       </c>
       <c r="F20" t="n">
-        <v>2.106313151943481</v>
+        <v>2.067952704617224</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.010269903733557</v>
+        <v>-4.965324028077912</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-7.230703957399223</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.54425077299956</v>
+        <v>-25.4979825747569</v>
       </c>
       <c r="F21" t="n">
-        <v>2.459857697881452</v>
+        <v>2.422963588473468</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.752364630054396</v>
+        <v>-4.710403799446664</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.657297378551859</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.1212809284458</v>
+        <v>-26.07464614572357</v>
       </c>
       <c r="F22" t="n">
-        <v>2.745374638253814</v>
+        <v>2.711753604556261</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.471246703436853</v>
+        <v>-4.423721644121388</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.131160966005397</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.619482328482</v>
+        <v>-26.57494231421445</v>
       </c>
       <c r="F23" t="n">
-        <v>2.941235488766036</v>
+        <v>2.908164331787836</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.316377853122076</v>
+        <v>-4.270672623901611</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.658010751443298</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.83570170991311</v>
+        <v>-26.7906118189262</v>
       </c>
       <c r="F24" t="n">
-        <v>3.068230826330779</v>
+        <v>3.03479308487301</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.137955949995034</v>
+        <v>-4.09158301332964</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-5.248598107472274</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.13829101319108</v>
+        <v>-27.09466746012245</v>
       </c>
       <c r="F25" t="n">
-        <v>3.37550717402609</v>
+        <v>3.34175521730012</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.881896691016555</v>
+        <v>-3.837068646086485</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.918325027961741</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.1058221021436</v>
+        <v>-27.06249967204033</v>
       </c>
       <c r="F26" t="n">
-        <v>3.458852773916518</v>
+        <v>3.421906295297167</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.844059935803966</v>
+        <v>-3.79751679920163</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.666294425132575</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.03360495966864</v>
+        <v>-26.99174886748364</v>
       </c>
       <c r="F27" t="n">
-        <v>3.467258032340906</v>
+        <v>3.432589614416016</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.780706282352854</v>
+        <v>-3.739151313133215</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.495282221886995</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.94898940640256</v>
+        <v>-26.90577171472203</v>
       </c>
       <c r="F28" t="n">
-        <v>3.526723271848026</v>
+        <v>3.49535411423925</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.775246792067854</v>
+        <v>-3.736925621650122</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.406258281455033</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.80122967653084</v>
+        <v>-26.7607089992357</v>
       </c>
       <c r="F29" t="n">
-        <v>3.536490129767953</v>
+        <v>3.506011248752415</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.699023404923325</v>
+        <v>-3.662482787692068</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-4.38463593122074</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.68419758142865</v>
+        <v>-26.64484211908643</v>
       </c>
       <c r="F30" t="n">
-        <v>3.505906510329682</v>
+        <v>3.478150828305222</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.65825397387419</v>
+        <v>-3.621949018094084</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-4.422634105219209</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.27812671648968</v>
+        <v>-26.2403554227913</v>
       </c>
       <c r="F31" t="n">
-        <v>3.398392519393427</v>
+        <v>3.372181729104291</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.84180805971519</v>
+        <v>-3.809286779456342</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.511655387343057</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.94395877875746</v>
+        <v>-25.90791566903419</v>
       </c>
       <c r="F32" t="n">
-        <v>3.348589399383501</v>
+        <v>3.323844947012639</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.93124158042702</v>
+        <v>-3.899099976950583</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.633157339394164</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.52495271861086</v>
+        <v>-25.48893579349327</v>
       </c>
       <c r="F33" t="n">
-        <v>3.227590336520269</v>
+        <v>3.203343391657392</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.070648421085719</v>
+        <v>-4.046794245308095</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.778996295902808</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.06741601120106</v>
+        <v>-25.03257739333923</v>
       </c>
       <c r="F34" t="n">
-        <v>3.144506582686675</v>
+        <v>3.12217111403869</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.984920022078097</v>
+        <v>-3.96491498333594</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.941017843685702</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.70952482071964</v>
+        <v>-24.67668932519259</v>
       </c>
       <c r="F35" t="n">
-        <v>2.89135381493906</v>
+        <v>2.868468469571722</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.078647818122014</v>
+        <v>-4.062216978055648</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.103582828779816</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.01526618562859</v>
+        <v>-23.98222121325607</v>
       </c>
       <c r="F36" t="n">
-        <v>2.765772446081223</v>
+        <v>2.74663149932662</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.392352486512612</v>
+        <v>-4.377728384238404</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.264997145498569</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.58252629980101</v>
+        <v>-23.55135352673486</v>
       </c>
       <c r="F37" t="n">
-        <v>2.612068810719359</v>
+        <v>2.591959033554468</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.465420628672286</v>
+        <v>-4.454017232897142</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.42383335244663</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.20644990067243</v>
+        <v>-23.17686129625013</v>
       </c>
       <c r="F38" t="n">
-        <v>2.553703324650944</v>
+        <v>2.534195793416773</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.574034373047245</v>
+        <v>-4.561190823959512</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.572311998736871</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.72868558537217</v>
+        <v>-22.6999872575431</v>
       </c>
       <c r="F39" t="n">
-        <v>2.514347862308716</v>
+        <v>2.494395192777926</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.504082198963903</v>
+        <v>-4.493647633599047</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.718888181608344</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.36826758044229</v>
+        <v>-22.34049880611499</v>
       </c>
       <c r="F40" t="n">
-        <v>2.502983743442098</v>
+        <v>2.478893906213322</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.554448287996023</v>
+        <v>-4.546605998593829</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.869169598615422</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.85205117169587</v>
+        <v>-21.8248584586936</v>
       </c>
       <c r="F41" t="n">
-        <v>2.583841805792598</v>
+        <v>2.562344244526483</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.485543498140019</v>
+        <v>-4.477845224069084</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.020649343781086</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.23137127857532</v>
+        <v>-21.20643044166183</v>
       </c>
       <c r="F42" t="n">
-        <v>2.707773544492377</v>
+        <v>2.687454290482018</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.497562232148723</v>
+        <v>-4.489222435238544</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.187169590876734</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.57913893560621</v>
+        <v>-20.55464323698934</v>
       </c>
       <c r="F43" t="n">
-        <v>2.818927195618631</v>
+        <v>2.798319910945754</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.494066587289982</v>
+        <v>-4.483828406467753</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.375627438831359</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.32381284558687</v>
+        <v>-20.30067874646554</v>
       </c>
       <c r="F44" t="n">
-        <v>2.767003122548346</v>
+        <v>2.74807165263921</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.576089864593397</v>
+        <v>-4.56709545254113</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.58326156878148</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.88313902423721</v>
+        <v>-19.86186403211941</v>
       </c>
       <c r="F45" t="n">
-        <v>2.846630508431724</v>
+        <v>2.825787562307696</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.55783919443203</v>
+        <v>-4.550206381875304</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.822853588244965</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.53184635438802</v>
+        <v>-19.50961562416277</v>
       </c>
       <c r="F46" t="n">
-        <v>2.887321385663808</v>
+        <v>2.866975947047766</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.654761512369328</v>
+        <v>-4.652064497983933</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.095637940665768</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.04724785700437</v>
+        <v>-19.02739992589632</v>
       </c>
       <c r="F47" t="n">
-        <v>2.918533435638483</v>
+        <v>2.899156827432729</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.964368289970466</v>
+        <v>-4.96325544422892</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.395057279447368</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.59030030322245</v>
+        <v>-18.57118554107353</v>
       </c>
       <c r="F48" t="n">
-        <v>2.88263434124647</v>
+        <v>2.864645517141938</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.090211504885137</v>
+        <v>-5.089530705137367</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.728093110039749</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.12420122975416</v>
+        <v>-18.10187885340902</v>
       </c>
       <c r="F49" t="n">
-        <v>2.911018453807332</v>
+        <v>2.893396214182369</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.344621133705558</v>
+        <v>-5.342565642159407</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.087261248856898</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.63554411848957</v>
+        <v>-17.61425603406893</v>
       </c>
       <c r="F50" t="n">
-        <v>2.967393909843805</v>
+        <v>2.946315302268626</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.426919349368649</v>
+        <v>-5.431606393785986</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.461150436472961</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.94667951216931</v>
+        <v>-16.92443568964122</v>
       </c>
       <c r="F51" t="n">
-        <v>2.946969917410712</v>
+        <v>2.924398787311576</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.643623146004898</v>
+        <v>-5.648467298056336</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.850568414125842</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.5700270517157</v>
+        <v>-16.54841165972401</v>
       </c>
       <c r="F52" t="n">
-        <v>2.825342424011077</v>
+        <v>2.804787508549567</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.795009443763776</v>
+        <v>-5.794158444079065</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-9.242001464897314</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.14811450033823</v>
+        <v>-16.12520297036521</v>
       </c>
       <c r="F53" t="n">
-        <v>2.892296460743664</v>
+        <v>2.873024590960643</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.852406099421904</v>
+        <v>-5.85268103778158</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.62469882027559</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.87648849328094</v>
+        <v>-15.8505264567458</v>
       </c>
       <c r="F54" t="n">
-        <v>2.648360674196624</v>
+        <v>2.62997908100684</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.083982752086354</v>
+        <v>-6.086470289626282</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.998331186611143</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.54136481744128</v>
+        <v>-15.51358295081114</v>
       </c>
       <c r="F55" t="n">
-        <v>2.487534826088861</v>
+        <v>2.468577171574041</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.294480797175626</v>
+        <v>-6.299730810615158</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-10.34857961837931</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.13852775130421</v>
+        <v>-15.10776083962615</v>
       </c>
       <c r="F56" t="n">
-        <v>2.432651892576345</v>
+        <v>2.413668053455842</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.496913983714395</v>
+        <v>-6.49779116800479</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-10.67045274324224</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.59806439769492</v>
+        <v>-14.56754623977085</v>
       </c>
       <c r="F57" t="n">
-        <v>2.392615630486347</v>
+        <v>2.37048963868383</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.763460177269096</v>
+        <v>-6.764703946039059</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-10.96689131946439</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.35039730483799</v>
+        <v>-14.3180200399104</v>
       </c>
       <c r="F58" t="n">
-        <v>2.215345850009376</v>
+        <v>2.192460504642039</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.721185131393162</v>
+        <v>-6.721682638901147</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-11.22639456191246</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.9761407358044</v>
+        <v>-13.94254588671254</v>
       </c>
       <c r="F59" t="n">
-        <v>2.269469429957072</v>
+        <v>2.243651408753188</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.856913034953336</v>
+        <v>-6.85845792668866</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-11.45307185553933</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.8661653919339</v>
+        <v>-13.83034485135894</v>
       </c>
       <c r="F60" t="n">
-        <v>2.088821835346935</v>
+        <v>2.063029998748735</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.821485263463625</v>
+        <v>-6.821406709646575</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-11.65308338425894</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.53703799079575</v>
+        <v>-13.50183278845435</v>
       </c>
       <c r="F61" t="n">
-        <v>1.967508557215502</v>
+        <v>1.941428689954783</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.155064047567964</v>
+        <v>-7.151974264097317</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-11.81640226741944</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.24018311616246</v>
+        <v>-13.20129897672253</v>
       </c>
       <c r="F62" t="n">
-        <v>1.890002124392483</v>
+        <v>1.862639211453276</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.192154541518573</v>
+        <v>-7.192782972054976</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-11.95420753393748</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.91318976038751</v>
+        <v>-12.87396522107369</v>
       </c>
       <c r="F63" t="n">
-        <v>1.821398457501838</v>
+        <v>1.794192652196732</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.316269572458137</v>
+        <v>-7.313755850312526</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-12.0725797416407</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.6720557266486</v>
+        <v>-12.63064477276022</v>
       </c>
       <c r="F64" t="n">
-        <v>1.706866992242419</v>
+        <v>1.678561433498607</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.492819276278813</v>
+        <v>-7.496825520948382</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-12.16075902839406</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.46112563556555</v>
+        <v>-12.41885058968961</v>
       </c>
       <c r="F65" t="n">
-        <v>1.622814407998538</v>
+        <v>1.601002631464222</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.730915895758443</v>
+        <v>-7.730470757461824</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-12.2334724942473</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.22598787652815</v>
+        <v>-12.18290110787603</v>
       </c>
       <c r="F66" t="n">
-        <v>1.553948895051058</v>
+        <v>1.532032380094009</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.848484775277144</v>
+        <v>-7.851050866634122</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-12.29367654767776</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.04581160482031</v>
+        <v>-12.00230588247726</v>
       </c>
       <c r="F67" t="n">
-        <v>1.614382964968466</v>
+        <v>1.58369460710746</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.818307017226965</v>
+        <v>-7.81644791022344</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-12.33004925693129</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.95721599149035</v>
+        <v>-11.91211300820061</v>
       </c>
       <c r="F68" t="n">
-        <v>1.469215511059407</v>
+        <v>1.444471058688545</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.826149306629159</v>
+        <v>-7.828689213380454</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-12.3581416393112</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.80877546187086</v>
+        <v>-11.76334517101007</v>
       </c>
       <c r="F69" t="n">
-        <v>1.365314995707469</v>
+        <v>1.33391965349301</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.898733033583688</v>
+        <v>-7.901286032637825</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-12.37643857450566</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.71193169775061</v>
+        <v>-11.66347708493339</v>
       </c>
       <c r="F70" t="n">
-        <v>1.410169225243223</v>
+        <v>1.380659174637972</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.838861932688475</v>
+        <v>-7.842684885118259</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-12.37489020868348</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.44258375138778</v>
+        <v>-11.39562166109451</v>
       </c>
       <c r="F71" t="n">
-        <v>1.349551863086031</v>
+        <v>1.319387197338694</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.687737480986431</v>
+        <v>-7.697307954363732</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-12.36674414199356</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.38594644929448</v>
+        <v>-11.33944258960067</v>
       </c>
       <c r="F72" t="n">
-        <v>1.399328798490274</v>
+        <v>1.370839947506678</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.693511186539632</v>
+        <v>-7.700646491588373</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-12.34646741450366</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.34543886430218</v>
+        <v>-11.31019438505225</v>
       </c>
       <c r="F73" t="n">
-        <v>1.37275142372157</v>
+        <v>1.34415783431524</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.569998401530788</v>
+        <v>-7.58298596594978</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-12.30730153183381</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.54128662251156</v>
+        <v>-11.50579338950764</v>
       </c>
       <c r="F74" t="n">
-        <v>1.418731591301712</v>
+        <v>1.391028278488619</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.458910211918742</v>
+        <v>-7.469423331100648</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-12.26117213636161</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.67008869786846</v>
+        <v>-11.63443835723044</v>
       </c>
       <c r="F75" t="n">
-        <v>1.350573062707686</v>
+        <v>1.322895934500277</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.331469736057381</v>
+        <v>-7.339717886847668</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-12.20197397990468</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.00379840500121</v>
+        <v>-11.97121166322816</v>
       </c>
       <c r="F76" t="n">
-        <v>1.374217761639843</v>
+        <v>1.348295002013225</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.128499765102101</v>
+        <v>-7.142626359868324</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-12.12893584408491</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.61456742487058</v>
+        <v>-12.58342083641011</v>
       </c>
       <c r="F77" t="n">
-        <v>1.349054355578045</v>
+        <v>1.322372242386608</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.9628297649429</v>
+        <v>-6.972504976742935</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-12.05448895275689</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.14240979854045</v>
+        <v>-13.11272954799825</v>
       </c>
       <c r="F78" t="n">
-        <v>1.378119267886677</v>
+        <v>1.350573062707686</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.833346889838229</v>
+        <v>-6.837091288450963</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-11.97232117705372</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.63758687662021</v>
+        <v>-13.60816847213485</v>
       </c>
       <c r="F79" t="n">
-        <v>1.437086999885812</v>
+        <v>1.410116856031856</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.661942461034352</v>
+        <v>-6.662623260782121</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-11.88674206318842</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.1953058853749</v>
+        <v>-14.16626715767195</v>
       </c>
       <c r="F80" t="n">
-        <v>1.419255283415381</v>
+        <v>1.396081907385526</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.391036530633356</v>
+        <v>-6.39501659069724</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-11.8081739012046</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.97905041038915</v>
+        <v>-14.9504830055885</v>
       </c>
       <c r="F81" t="n">
-        <v>1.483486121156889</v>
+        <v>1.458872591814444</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.278272526257569</v>
+        <v>-6.28002689483836</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-11.72779338484339</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.73202802372534</v>
+        <v>-15.70444254163782</v>
       </c>
       <c r="F82" t="n">
-        <v>1.513781709932643</v>
+        <v>1.491603348918759</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.192465573432896</v>
+        <v>-6.194822187944407</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-11.65225431992769</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.6011212709648</v>
+        <v>-16.57323466591192</v>
       </c>
       <c r="F83" t="n">
-        <v>1.47120554109135</v>
+        <v>1.448058349667178</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.930815901141001</v>
+        <v>-5.934547207450893</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-11.58746116594046</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.67098498228212</v>
+        <v>-17.64375299237134</v>
       </c>
       <c r="F84" t="n">
-        <v>1.551958865019116</v>
+        <v>1.531613426403074</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.746515554038023</v>
+        <v>-5.74724872299716</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-11.52031237477426</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.48239354320094</v>
+        <v>-18.45565906079814</v>
       </c>
       <c r="F85" t="n">
-        <v>1.545203236752785</v>
+        <v>1.523496198641204</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.542432737341197</v>
+        <v>-5.540455799612096</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-11.4580167232909</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.57287763149399</v>
+        <v>-19.54377344227683</v>
       </c>
       <c r="F86" t="n">
-        <v>1.540437638518397</v>
+        <v>1.519044815675017</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.243286709710598</v>
+        <v>-5.242907032928188</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-11.40073271800029</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.63255553120046</v>
+        <v>-20.6032025882293</v>
       </c>
       <c r="F87" t="n">
-        <v>1.55366086438854</v>
+        <v>1.540044869433145</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.966895104418919</v>
+        <v>-4.969971795586725</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-11.33089199623327</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.99388008838029</v>
+        <v>-21.96531268357964</v>
       </c>
       <c r="F88" t="n">
-        <v>1.607862998153286</v>
+        <v>1.592597373039834</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.66001152580886</v>
+        <v>-4.65993297199181</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-11.25446420039868</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.45644742343519</v>
+        <v>-23.43124474046487</v>
       </c>
       <c r="F89" t="n">
-        <v>1.404827565683799</v>
+        <v>1.386734003156533</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.318158406308551</v>
+        <v>-4.319847313375133</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-11.16315234968733</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.94413888764337</v>
+        <v>-24.91970865054071</v>
       </c>
       <c r="F90" t="n">
-        <v>1.252852114297042</v>
+        <v>1.237311550823913</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.128804430308667</v>
+        <v>-4.127377369298919</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-11.03594258506951</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.59761818273632</v>
+        <v>-26.57359380702175</v>
       </c>
       <c r="F91" t="n">
-        <v>1.085820514642301</v>
+        <v>1.071837935207338</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.086725768975359</v>
+        <v>-4.087733876294172</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-10.87362145482517</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.29326778528247</v>
+        <v>-28.27343294647726</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9992018390414414</v>
+        <v>0.9867117821304348</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.83960855283778</v>
+        <v>-3.841546213658355</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-10.66184009244186</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.18430691543854</v>
+        <v>-30.16621335291128</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8753748387643963</v>
+        <v>0.8635001200869508</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.878885461362958</v>
+        <v>-3.882826244518317</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-10.38148716356103</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.3224632617322</v>
+        <v>-32.3068703290477</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7830086422160188</v>
+        <v>0.772011107828969</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.91416921752141</v>
+        <v>-3.919798907743352</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-10.03623741218529</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.4113139955239</v>
+        <v>-34.39811695425944</v>
       </c>
       <c r="F95" t="n">
-        <v>0.372263825162547</v>
+        <v>0.3610044447186626</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.917075708752273</v>
+        <v>-3.923438567933351</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.613440500110952</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.42727987939573</v>
+        <v>-36.41595503743763</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09472009722079602</v>
+        <v>0.08123502529381818</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.095536888787841</v>
+        <v>-4.100459594656329</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.115196611881119</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.55908645881114</v>
+        <v>-38.54954217003952</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2352059343907009</v>
+        <v>-0.2465438686516357</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.177272135428737</v>
+        <v>-4.18571667076165</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.546137016971787</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.89776451542867</v>
+        <v>-40.89303819410281</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.4955594687012655</v>
+        <v>-0.5090052637197182</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.383528274397289</v>
+        <v>-4.392221563484195</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.930108709777692</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.31953941818263</v>
+        <v>-43.31656746543756</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.412423345656305</v>
+        <v>-0.4257120330406569</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.703556525060441</v>
+        <v>-4.711883229667779</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.25705674884237</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.7995226993709</v>
+        <v>-45.79965362239933</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.5635216127526655</v>
+        <v>-0.5719399634798954</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.944900035644819</v>
+        <v>-4.955635723975035</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.59697877104738</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.20232685530721</v>
+        <v>-48.20264107057541</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.5852155585614056</v>
+        <v>-0.5971688310559015</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.298261289343006</v>
+        <v>-5.312139130355235</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.894118119682933</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.49012822308179</v>
+        <v>-50.49340129879222</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.710417250636832</v>
+        <v>-0.7214802465380905</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.619297647324971</v>
+        <v>-5.631643688904719</v>
       </c>
     </row>
   </sheetData>
